--- a/translations_jp_JPN.xlsx
+++ b/translations_jp_JPN.xlsx
@@ -25,7 +25,7 @@
     <author>MS</author>
   </authors>
   <commentList>
-    <comment ref="B76" authorId="0">
+    <comment ref="A76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,16 +44,16 @@
           <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="top">
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>15</xdr:colOff>
                 <xdr:row>76</xdr:row>
-                <xdr:rowOff>11</xdr:rowOff>
+                <xdr:rowOff>13</xdr:rowOff>
               </xdr:from>
               <xdr:to>
-                <xdr:col>25</xdr:col>
+                <xdr:col>24</xdr:col>
                 <xdr:colOff>37</xdr:colOff>
                 <xdr:row>79</xdr:row>
-                <xdr:rowOff>13</xdr:rowOff>
+                <xdr:rowOff>15</xdr:rowOff>
               </xdr:to>
             </anchor>
           </commentPr>
@@ -66,10 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="896">
-  <si>
-    <t xml:space="preserve">(Or, hold 'Enter' to start - Hold 'Esc' to skip)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="444">
   <si>
     <r>
       <rPr>
@@ -139,9 +136,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">- Automatically stops listening</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -163,9 +157,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">- Includes grammar</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -187,9 +178,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">- Lower accuracy</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -211,9 +199,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">- Much higher accuracy</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -235,9 +220,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">- Multi-language support</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -259,9 +241,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">- Requires 'Chrome' to be installed</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -300,9 +279,6 @@
       </rPr>
       <t xml:space="preserve">」がインストールされている必要があります</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Never launch OVR Toolkit through Oculus Home -This may launch the application incorrectly. 2. Please refer to the 'Oculus' page on our Wiki (by the button above) if OVR Toolkit doesn't appear in your games due to the game not running through OpenVR. 3. Please note that running games through OpenVR may reduce their performance as you will be rendering SteamVR and the Oculus compositor. This is unavoidable with any overlay application on Steam! Don't hesitate to join our Discord for help! :)</t>
   </si>
   <si>
     <r>
@@ -548,75 +524,39 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Accent brightness</t>
-  </si>
-  <si>
     <t xml:space="preserve">アクセントの明るさ</t>
   </si>
   <si>
-    <t xml:space="preserve">Accent colour</t>
-  </si>
-  <si>
     <t xml:space="preserve">アクセントカラー</t>
   </si>
   <si>
-    <t xml:space="preserve">Add Hotkey</t>
-  </si>
-  <si>
     <t xml:space="preserve">ホットキーを追加</t>
   </si>
   <si>
-    <t xml:space="preserve">Add Module</t>
-  </si>
-  <si>
     <t xml:space="preserve">モジュールを追加</t>
   </si>
   <si>
-    <t xml:space="preserve">Add key press</t>
-  </si>
-  <si>
     <t xml:space="preserve">キープレスを追加</t>
   </si>
   <si>
-    <t xml:space="preserve">Add macro</t>
-  </si>
-  <si>
     <t xml:space="preserve">マクロを追加</t>
   </si>
   <si>
-    <t xml:space="preserve">Add new module</t>
-  </si>
-  <si>
     <t xml:space="preserve">新しいモジュールを追加する</t>
   </si>
   <si>
-    <t xml:space="preserve">Admin check failed</t>
-  </si>
-  <si>
     <t xml:space="preserve">管理者チェックが 失敗しました</t>
   </si>
   <si>
-    <t xml:space="preserve">Advanced</t>
-  </si>
-  <si>
     <t xml:space="preserve">高度</t>
   </si>
   <si>
-    <t xml:space="preserve">Alarm</t>
-  </si>
-  <si>
     <t xml:space="preserve">警報</t>
   </si>
   <si>
-    <t xml:space="preserve">Alarm cancelled</t>
-  </si>
-  <si>
     <t xml:space="preserve">アラームがキャンセルされました</t>
   </si>
   <si>
-    <t xml:space="preserve">Alarm set:</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -638,9 +578,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Alt tab on changing windows:</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -671,9 +608,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">An event you're interested in is starting in under 1 hour!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -704,9 +638,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">An event you're interested in is starting in under 30 minutes!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -737,33 +668,18 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">An event you're interested in is starting! Open Edit Mode for join instructions.</t>
-  </si>
-  <si>
     <t xml:space="preserve">興味のあるイベントが始まります！参加手順については、編集モードを開きます。</t>
   </si>
   <si>
-    <t xml:space="preserve">Angle snapping</t>
-  </si>
-  <si>
     <t xml:space="preserve">角度スナップ</t>
   </si>
   <si>
-    <t xml:space="preserve">Angle snapping, face headset, automatic curving</t>
-  </si>
-  <si>
     <t xml:space="preserve">アングルスナップ、フェイスヘッドセット、自動カーブ</t>
   </si>
   <si>
-    <t xml:space="preserve">Are you sure?</t>
-  </si>
-  <si>
     <t xml:space="preserve">本当に閉じますか？</t>
   </si>
   <si>
-    <t xml:space="preserve">Attach fpsVR</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -785,9 +701,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Attach to HMD</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -809,87 +722,45 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Attached</t>
-  </si>
-  <si>
     <t xml:space="preserve">付属</t>
   </si>
   <si>
-    <t xml:space="preserve">Author</t>
-  </si>
-  <si>
     <t xml:space="preserve">著者</t>
   </si>
   <si>
-    <t xml:space="preserve">Auto performance adjustments:</t>
-  </si>
-  <si>
     <t xml:space="preserve">自動パフォーマンス調整：</t>
   </si>
   <si>
-    <t xml:space="preserve">Automatically alt tab into games:</t>
-  </si>
-  <si>
     <t xml:space="preserve">タブをゲームに自動的に変更します。</t>
   </si>
   <si>
-    <t xml:space="preserve">Automatically curve windows</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウィンドウを自動的にカーブさせる</t>
   </si>
   <si>
-    <t xml:space="preserve">Back</t>
-  </si>
-  <si>
     <t xml:space="preserve">バック</t>
   </si>
   <si>
-    <t xml:space="preserve">Background</t>
-  </si>
-  <si>
     <t xml:space="preserve">背景</t>
   </si>
   <si>
-    <t xml:space="preserve">Background image, keyboard language, Steam Workshop, accent colours</t>
-  </si>
-  <si>
     <t xml:space="preserve">背景画像、アクセントカラー、通知、常夜灯</t>
   </si>
   <si>
-    <t xml:space="preserve">Backspace</t>
-  </si>
-  <si>
     <t xml:space="preserve">バックスペース</t>
   </si>
   <si>
-    <t xml:space="preserve">Backwards</t>
-  </si>
-  <si>
     <t xml:space="preserve">後方</t>
   </si>
   <si>
-    <t xml:space="preserve">Base Author</t>
-  </si>
-  <si>
     <t xml:space="preserve">ベース著者</t>
   </si>
   <si>
-    <t xml:space="preserve">Best effort (Intensive!)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ベストエフォート（ インテンシブ ！）</t>
   </si>
   <si>
-    <t xml:space="preserve">Best effort can only be used with desktop captures!</t>
-  </si>
-  <si>
     <t xml:space="preserve">ベストエフォートはデスクトップキャプチャでのみ使用できます！</t>
   </si>
   <si>
-    <t xml:space="preserve">Best effort cannot be used on monitors not connected to your main GPU!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -920,111 +791,57 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Block Input to other applications</t>
-  </si>
-  <si>
     <t xml:space="preserve">他のアプリケーションへの入力を ブロック</t>
   </si>
   <si>
-    <t xml:space="preserve">Block cursor input</t>
-  </si>
-  <si>
     <t xml:space="preserve">カーソル入力を ブロック</t>
   </si>
   <si>
-    <t xml:space="preserve">Block input</t>
-  </si>
-  <si>
     <t xml:space="preserve">入力を ブロック</t>
   </si>
   <si>
-    <t xml:space="preserve">Bottom</t>
-  </si>
-  <si>
     <t xml:space="preserve">下</t>
   </si>
   <si>
-    <t xml:space="preserve">Brightness Range</t>
-  </si>
-  <si>
     <t xml:space="preserve">輝度範囲</t>
   </si>
   <si>
-    <t xml:space="preserve">Bring to me</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウインドウを自分のところへ持ってくる</t>
   </si>
   <si>
-    <t xml:space="preserve">Calibrating battery monitoring</t>
-  </si>
-  <si>
     <t xml:space="preserve">バッテリー監視の調整</t>
   </si>
   <si>
-    <t xml:space="preserve">Cancel</t>
-  </si>
-  <si>
     <t xml:space="preserve">キャンセル</t>
   </si>
   <si>
-    <t xml:space="preserve">Cancel alarm through the Wristwatch clock tab.</t>
-  </si>
-  <si>
     <t xml:space="preserve">腕時計の時計タブからアラームをキャンセルします。</t>
   </si>
   <si>
-    <t xml:space="preserve">Cancel timer through the Wristwatch clock tab.</t>
-  </si>
-  <si>
     <t xml:space="preserve">腕時計の時計タブからタイマーをキャンセルします。</t>
   </si>
   <si>
-    <t xml:space="preserve">Category</t>
-  </si>
-  <si>
     <t xml:space="preserve">カテゴリー</t>
   </si>
   <si>
-    <t xml:space="preserve">Change profile</t>
-  </si>
-  <si>
     <t xml:space="preserve">プロフィールを変更</t>
   </si>
   <si>
-    <t xml:space="preserve">Changing the hiding angle is only possible when the overlay is attached to a device.</t>
-  </si>
-  <si>
     <t xml:space="preserve">非表示角度の変更は、オーバーレイがデバイスに接続されている場合にのみ可能です。</t>
   </si>
   <si>
-    <t xml:space="preserve">Charging</t>
-  </si>
-  <si>
     <t xml:space="preserve">充電</t>
   </si>
   <si>
-    <t xml:space="preserve">Chroma key</t>
-  </si>
-  <si>
     <t xml:space="preserve">クロマキー</t>
   </si>
   <si>
-    <t xml:space="preserve">Chroma key enabled</t>
-  </si>
-  <si>
     <t xml:space="preserve">クロマキーが有効</t>
   </si>
   <si>
-    <t xml:space="preserve">Clean install</t>
-  </si>
-  <si>
     <t xml:space="preserve">クリーンインストール</t>
   </si>
   <si>
-    <t xml:space="preserve">Click 'Set Contents' to change what a window is displaying.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1065,9 +882,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Click 'Spawn Window' to create a new window.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1108,15 +922,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Click hotkeys to remove</t>
-  </si>
-  <si>
     <t xml:space="preserve">クリックでホットキーを 削除できます</t>
   </si>
   <si>
-    <t xml:space="preserve">Click or press 'R' to search again.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1147,21 +955,12 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Click the gear icon to open Edit Mode</t>
-  </si>
-  <si>
     <t xml:space="preserve">歯車アイコンをクリックして編集モードを開きます</t>
   </si>
   <si>
-    <t xml:space="preserve">Close</t>
-  </si>
-  <si>
     <t xml:space="preserve">閉じる</t>
   </si>
   <si>
-    <t xml:space="preserve">Close 'Edit Mode' again by clicking the gear icon.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1211,9 +1010,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Close 'Edit Mode' again by pressing F8.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1273,15 +1069,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Close all windows</t>
-  </si>
-  <si>
     <t xml:space="preserve">すべてのウィンドウを閉じる</t>
   </si>
   <si>
-    <t xml:space="preserve">Close the dashboard to use OVR Toolkit</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1310,9 +1100,6 @@
       </rPr>
       <t xml:space="preserve">ツールキットを使用します</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Closing 'Edit Mode' will only close the menu. To toggle your created windows on and off without entering or exiting Edit Mode, press F7.</t>
   </si>
   <si>
     <r>
@@ -1346,15 +1133,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Closing 'Edit Mode' will toggle off your windows, however, you can keep them visible by enabling the 'Keep Visible' option in 'Window Settings'.</t>
-  </si>
-  <si>
     <t xml:space="preserve">「編集モード」を閉じるとウィンドウがオフになりますが、「ウィンドウ設定」の「表示を維持」オプションを有効にすることで、ウィンドウを表示したままにすることができます。</t>
   </si>
   <si>
-    <t xml:space="preserve">Compact UI, legacy Edit Mode, resize menu</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1385,21 +1166,12 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Configure wrist overlay</t>
-  </si>
-  <si>
     <t xml:space="preserve">手首オーバーレイを構成する</t>
   </si>
   <si>
-    <t xml:space="preserve">Confirm</t>
-  </si>
-  <si>
     <t xml:space="preserve">確認</t>
   </si>
   <si>
-    <t xml:space="preserve">Connection lost, please restart OVR Toolkit!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1430,123 +1202,63 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Continuous voice recognition</t>
-  </si>
-  <si>
     <t xml:space="preserve">連続音声認識</t>
   </si>
   <si>
-    <t xml:space="preserve">Crashed? Try this:</t>
-  </si>
-  <si>
     <t xml:space="preserve">クラッシュしましたか？これを試して：</t>
   </si>
   <si>
-    <t xml:space="preserve">Create</t>
-  </si>
-  <si>
     <t xml:space="preserve">作成</t>
   </si>
   <si>
-    <t xml:space="preserve">Create Event</t>
-  </si>
-  <si>
     <t xml:space="preserve">イベントを作成する</t>
   </si>
   <si>
-    <t xml:space="preserve">Credits:</t>
-  </si>
-  <si>
     <t xml:space="preserve">クレジット：</t>
   </si>
   <si>
-    <t xml:space="preserve">Crop window</t>
-  </si>
-  <si>
     <t xml:space="preserve">クロップウィンドウ</t>
   </si>
   <si>
-    <t xml:space="preserve">Current windows</t>
-  </si>
-  <si>
     <t xml:space="preserve">Изменение угла скрытия возможно только в том случае, если оверлей прикреплён к устройству.</t>
   </si>
   <si>
-    <t xml:space="preserve">Curve</t>
-  </si>
-  <si>
     <t xml:space="preserve">カーブ</t>
   </si>
   <si>
-    <t xml:space="preserve">Curved overlays</t>
-  </si>
-  <si>
     <t xml:space="preserve">カーブオーバーレイ</t>
   </si>
   <si>
-    <t xml:space="preserve">Curved overlays are only available when a window isn't attached to a controller</t>
-  </si>
-  <si>
     <t xml:space="preserve">カーブオーバーレイは ウィンドウがコントローラーに 付けられていないときだけ 使用できます</t>
   </si>
   <si>
-    <t xml:space="preserve">Custom icons</t>
-  </si>
-  <si>
     <t xml:space="preserve">カスタムアイコン</t>
   </si>
   <si>
-    <t xml:space="preserve">Customise</t>
-  </si>
-  <si>
     <t xml:space="preserve">カスタマイズ</t>
   </si>
   <si>
-    <t xml:space="preserve">Customize background</t>
-  </si>
-  <si>
     <t xml:space="preserve">背景をカスタマイズする</t>
   </si>
   <si>
-    <t xml:space="preserve">Cycle Profile Backwards</t>
-  </si>
-  <si>
     <t xml:space="preserve">プロファイルを逆方向​​に循環させる</t>
   </si>
   <si>
-    <t xml:space="preserve">Cycle Profile Forward</t>
-  </si>
-  <si>
     <t xml:space="preserve">サイクルプロファイルフォワード</t>
   </si>
   <si>
-    <t xml:space="preserve">Delete</t>
-  </si>
-  <si>
     <t xml:space="preserve">消去</t>
   </si>
   <si>
-    <t xml:space="preserve">Delete event?</t>
-  </si>
-  <si>
     <t xml:space="preserve">イベントを削除しますか？</t>
   </si>
   <si>
-    <t xml:space="preserve">Delete preset</t>
-  </si>
-  <si>
     <t xml:space="preserve">プリセットを削除</t>
   </si>
   <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
     <t xml:space="preserve">説明</t>
   </si>
   <si>
-    <t xml:space="preserve">Description too long, please limit to 3000 characters.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1577,15 +1289,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Desktop</t>
-  </si>
-  <si>
     <t xml:space="preserve">デスクトップ</t>
   </si>
   <si>
-    <t xml:space="preserve">Disable GPU Capture</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1607,15 +1313,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Disable sound</t>
-  </si>
-  <si>
     <t xml:space="preserve">キーボードサウンドを無効にする</t>
   </si>
   <si>
-    <t xml:space="preserve">Display RAM instead of VRAM</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1656,27 +1356,15 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Display remaining battery in minutes</t>
-  </si>
-  <si>
     <t xml:space="preserve">バッテリー残量を分単位で表示</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you want to start this application?</t>
-  </si>
-  <si>
     <t xml:space="preserve">このアプリケーションを起動しますか？</t>
   </si>
   <si>
-    <t xml:space="preserve">Don't show again</t>
-  </si>
-  <si>
     <t xml:space="preserve">今後表示しない</t>
   </si>
   <si>
-    <t xml:space="preserve">Don't use Steam or Discord? Send me an e-mail at: curtis@ovrtoolkit.co.uk</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1727,138 +1415,69 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drop a window on the attach point on a hand to attach a window to your hand.</t>
-  </si>
-  <si>
     <t xml:space="preserve">手のアタッチポイントにウィンドウをドロップして、ウィンドウを手にアタッチします。</t>
   </si>
   <si>
-    <t xml:space="preserve">Drop a window on the detach point to detatch the window from your hand.</t>
-  </si>
-  <si>
     <t xml:space="preserve">分離ポイントにウィンドウをドロップして、ウィンドウを手から切り離します。</t>
   </si>
   <si>
-    <t xml:space="preserve">Eco Mode</t>
-  </si>
-  <si>
     <t xml:space="preserve">エコモード</t>
   </si>
   <si>
-    <t xml:space="preserve">Eco Mode is still enabled. Disable it in 'Window Settings' to keep higher frame rate.</t>
-  </si>
-  <si>
     <t xml:space="preserve">エコモードはまだ有効です。 より高いフレームレートを維持するには、「ウィンドウの設定」で無効にします。</t>
   </si>
   <si>
-    <t xml:space="preserve">Edit Mode</t>
-  </si>
-  <si>
     <t xml:space="preserve">編集モード</t>
   </si>
   <si>
-    <t xml:space="preserve">Edit Mode allows you to create new windows, move them, and select what they display.</t>
-  </si>
-  <si>
     <t xml:space="preserve">編集モードでは、新しいウィンドウを作成して移動し、表示するものを選択できます。</t>
   </si>
   <si>
-    <t xml:space="preserve">Edit controller bindings</t>
-  </si>
-  <si>
     <t xml:space="preserve">コントローラーバインディングの編集</t>
   </si>
   <si>
-    <t xml:space="preserve">Edit hotkeys</t>
-  </si>
-  <si>
     <t xml:space="preserve">ホットキーを編集する</t>
   </si>
   <si>
-    <t xml:space="preserve">Educational</t>
-  </si>
-  <si>
     <t xml:space="preserve">教育</t>
   </si>
   <si>
-    <t xml:space="preserve">Enable Performance Mode</t>
-  </si>
-  <si>
     <t xml:space="preserve">エコモードを有効にする</t>
   </si>
   <si>
-    <t xml:space="preserve">Enable UI moving</t>
-  </si>
-  <si>
     <t xml:space="preserve">編集モード メニューの移動を有効にする</t>
   </si>
   <si>
-    <t xml:space="preserve">Enable rotation lock</t>
-  </si>
-  <si>
     <t xml:space="preserve">回転ロックを有効にする</t>
   </si>
   <si>
-    <t xml:space="preserve">Enable swipe typing</t>
-  </si>
-  <si>
     <t xml:space="preserve">スワイプタイピングを有効にする</t>
   </si>
   <si>
-    <t xml:space="preserve">Enable window docking</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウィンドウのドッキングを有効にする</t>
   </si>
   <si>
-    <t xml:space="preserve">Enable word suggestions</t>
-  </si>
-  <si>
     <t xml:space="preserve">単語候補を有効にする</t>
   </si>
   <si>
-    <t xml:space="preserve">Enable wrist UI moving</t>
-  </si>
-  <si>
     <t xml:space="preserve">動く腕時計を有効にする</t>
   </si>
   <si>
-    <t xml:space="preserve">Enable wrist overlay</t>
-  </si>
-  <si>
     <t xml:space="preserve">手首オーバーレイ を有効にする</t>
   </si>
   <si>
-    <t xml:space="preserve">Enable, switch hands, change modules, resize overlay</t>
-  </si>
-  <si>
     <t xml:space="preserve">有効化、ハンドの切り替え、モジュールの変更、オーバーレイのサイズ変更</t>
   </si>
   <si>
-    <t xml:space="preserve">End</t>
-  </si>
-  <si>
     <t xml:space="preserve">終了</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter the 'Window List' menu and select 'Spawn Window'.</t>
-  </si>
-  <si>
     <t xml:space="preserve">「ウィンドウリスト」メニューに入り、「スポーンウィンドウ」を選択します。</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter the 'Window Settings' menu and select 'Move Window'.</t>
-  </si>
-  <si>
     <t xml:space="preserve">「ウィンドウ設定」メニューに入り、「ウィンドウの移動」を選択します。</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter the 'Window Settings' menu and select 'Set Contents' to change what a window displays.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1937,87 +1556,45 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Event Name:</t>
-  </si>
-  <si>
     <t xml:space="preserve">イベント名：</t>
   </si>
   <si>
-    <t xml:space="preserve">Event Starting</t>
-  </si>
-  <si>
     <t xml:space="preserve">イベント開始</t>
   </si>
   <si>
-    <t xml:space="preserve">Events</t>
-  </si>
-  <si>
     <t xml:space="preserve">イベント</t>
   </si>
   <si>
-    <t xml:space="preserve">Events doesn't support this game yet, sorry!</t>
-  </si>
-  <si>
     <t xml:space="preserve">イベントはまだこのゲームをサポートしていません、ごめんなさい！</t>
   </si>
   <si>
-    <t xml:space="preserve">Exercise</t>
-  </si>
-  <si>
     <t xml:space="preserve">エクササイズ</t>
   </si>
   <si>
-    <t xml:space="preserve">External Link:</t>
-  </si>
-  <si>
     <t xml:space="preserve">外部リンク：</t>
   </si>
   <si>
-    <t xml:space="preserve">Fade out</t>
-  </si>
-  <si>
     <t xml:space="preserve">フォーカスが合っていないときにフェード</t>
   </si>
   <si>
-    <t xml:space="preserve">Find new content</t>
-  </si>
-  <si>
     <t xml:space="preserve">新しいコンテンツを見つける</t>
   </si>
   <si>
-    <t xml:space="preserve">Find new keyboards</t>
-  </si>
-  <si>
     <t xml:space="preserve">新しいキーボードを探す</t>
   </si>
   <si>
-    <t xml:space="preserve">Fix</t>
-  </si>
-  <si>
     <t xml:space="preserve">修理</t>
   </si>
   <si>
-    <t xml:space="preserve">Fix startup</t>
-  </si>
-  <si>
     <t xml:space="preserve">スタートアップを修正</t>
   </si>
   <si>
-    <t xml:space="preserve">Flip Horizontal</t>
-  </si>
-  <si>
     <t xml:space="preserve">水平に反転</t>
   </si>
   <si>
-    <t xml:space="preserve">Flip Vertical</t>
-  </si>
-  <si>
     <t xml:space="preserve">垂直に反転</t>
   </si>
   <si>
-    <t xml:space="preserve">Force GPU Capture</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2039,90 +1616,45 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Forward</t>
-  </si>
-  <si>
     <t xml:space="preserve">前方</t>
   </si>
   <si>
-    <t xml:space="preserve">Framerate</t>
-  </si>
-  <si>
     <t xml:space="preserve">フレームレート</t>
   </si>
   <si>
-    <t xml:space="preserve">Full</t>
-  </si>
-  <si>
     <t xml:space="preserve">満杯</t>
   </si>
   <si>
-    <t xml:space="preserve">Game</t>
-  </si>
-  <si>
     <t xml:space="preserve">ゲーム</t>
   </si>
   <si>
-    <t xml:space="preserve">Game input blocking</t>
-  </si>
-  <si>
     <t xml:space="preserve">ゲーム入力のブロック</t>
   </si>
   <si>
-    <t xml:space="preserve">Games</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get content</t>
-  </si>
-  <si>
     <t xml:space="preserve">コンテンツを取得する</t>
   </si>
   <si>
-    <t xml:space="preserve">Global Settings</t>
-  </si>
-  <si>
     <t xml:space="preserve">設定</t>
   </si>
   <si>
-    <t xml:space="preserve">Hand tracking:</t>
-  </si>
-  <si>
     <t xml:space="preserve">ハンドトラッキング：</t>
   </si>
   <si>
-    <t xml:space="preserve">Head gaze</t>
-  </si>
-  <si>
     <t xml:space="preserve">視線</t>
   </si>
   <si>
-    <t xml:space="preserve">Hide keyboard controls</t>
-  </si>
-  <si>
     <t xml:space="preserve">キーボードコントロールを非表示にする</t>
   </si>
   <si>
-    <t xml:space="preserve">Hide when not looking at window</t>
-  </si>
-  <si>
     <t xml:space="preserve">表示されている場合にのみ表示</t>
   </si>
   <si>
-    <t xml:space="preserve">Hide when past hide distance</t>
-  </si>
-  <si>
     <t xml:space="preserve">非表示距離を過ぎるとウインドウを非表示にする</t>
   </si>
   <si>
-    <t xml:space="preserve">Hide wrist overlay when not visible</t>
-  </si>
-  <si>
     <t xml:space="preserve">見えないときに 手首のオーバーレイを非表示</t>
   </si>
   <si>
-    <t xml:space="preserve">High priority process:</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2142,9 +1674,6 @@
       </rPr>
       <t xml:space="preserve">:</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hold 'A' near a window to move it. (Optionally use 'Grip')</t>
   </si>
   <si>
     <r>
@@ -2178,13 +1707,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Hold 'Grip' near a window to move it.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウィンドウの近くで「グリップ」を押したままにして移動します。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holding 'Shift' will move windows faster. Holding 'Alt' will move windows slower.</t>
   </si>
   <si>
     <r>
@@ -2228,25 +1751,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Home</t>
-  </si>
-  <si>
     <t xml:space="preserve">ホーム</t>
   </si>
   <si>
-    <t xml:space="preserve">How to</t>
-  </si>
-  <si>
     <t xml:space="preserve">使用方法</t>
   </si>
   <si>
-    <t xml:space="preserve">How to enable</t>
-  </si>
-  <si>
     <t xml:space="preserve">有効にする方法</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How to use: Use the 'Spawn Mask' button to create objects that will hide parts of the window. Move masks around by holding the Trigger on them and dragging. Masks will show as white whilst in the cropping menu, but will be see-through once you close the menu.</t>
   </si>
   <si>
     <t xml:space="preserve">マスクの使い方：
@@ -2255,27 +1766,15 @@
 クロップメニューで マスクは白いけど、 メニューを 閉じると透明になる。</t>
   </si>
   <si>
-    <t xml:space="preserve">Hue Range</t>
-  </si>
-  <si>
     <t xml:space="preserve">色相範囲</t>
   </si>
   <si>
-    <t xml:space="preserve">I understand</t>
-  </si>
-  <si>
     <t xml:space="preserve">わかった</t>
   </si>
   <si>
-    <t xml:space="preserve">Icon</t>
-  </si>
-  <si>
     <t xml:space="preserve">アイコン</t>
   </si>
   <si>
-    <t xml:space="preserve">Icon must be 100x100 pixels!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2306,15 +1805,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Ignore</t>
-  </si>
-  <si>
     <t xml:space="preserve">無視</t>
   </si>
   <si>
-    <t xml:space="preserve">Important information for Oculus users</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2336,39 +1829,21 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Individual</t>
-  </si>
-  <si>
     <t xml:space="preserve">個人</t>
   </si>
   <si>
-    <t xml:space="preserve">Input</t>
-  </si>
-  <si>
     <t xml:space="preserve">入力</t>
   </si>
   <si>
-    <t xml:space="preserve">Interested</t>
-  </si>
-  <si>
     <t xml:space="preserve">興味がある</t>
   </si>
   <si>
-    <t xml:space="preserve">Interface</t>
-  </si>
-  <si>
     <t xml:space="preserve">インターフェース</t>
   </si>
   <si>
-    <t xml:space="preserve">Invalid Join Link! Maybe the event host didn't set one?</t>
-  </si>
-  <si>
     <t xml:space="preserve">無効な参加リンク！たぶん、イベントの主催者はそれを設定しなかったのですか？</t>
   </si>
   <si>
-    <t xml:space="preserve">Invalid event category, please select one!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2399,27 +1874,15 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Invalid event description, must not be empty!</t>
-  </si>
-  <si>
     <t xml:space="preserve">イベントの説明が無効です。空にしないでください。</t>
   </si>
   <si>
-    <t xml:space="preserve">Invalid event join instructions, must not be empty!</t>
-  </si>
-  <si>
     <t xml:space="preserve">無効なイベント参加手順。空にしないでください。</t>
   </si>
   <si>
-    <t xml:space="preserve">Invalid event name, must not be empty!</t>
-  </si>
-  <si>
     <t xml:space="preserve">イベント名が無効です。空にしないでください。</t>
   </si>
   <si>
-    <t xml:space="preserve">Invalid event time, must be within 14 days!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2450,27 +1913,15 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Invalid event time, must not be in the past!</t>
-  </si>
-  <si>
     <t xml:space="preserve">無効なイベント時間、過去であってはなりません！</t>
   </si>
   <si>
-    <t xml:space="preserve">It may take some time for minutes remaining to appear!</t>
-  </si>
-  <si>
     <t xml:space="preserve">残り分が表示されるまでに時間がかかる場合があります！</t>
   </si>
   <si>
-    <t xml:space="preserve">Join</t>
-  </si>
-  <si>
     <t xml:space="preserve">加入</t>
   </si>
   <si>
-    <t xml:space="preserve">Join Instructions too long, please limit to 400 characters.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2501,15 +1952,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Join Instructions:</t>
-  </si>
-  <si>
     <t xml:space="preserve">参加手順</t>
   </si>
   <si>
-    <t xml:space="preserve">Join URL (Optional)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2540,27 +1985,15 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Keep holding grip to move</t>
-  </si>
-  <si>
     <t xml:space="preserve">握り続けると移動する</t>
   </si>
   <si>
-    <t xml:space="preserve">Keep visible</t>
-  </si>
-  <si>
     <t xml:space="preserve">見えるようにする</t>
   </si>
   <si>
-    <t xml:space="preserve">Keyboard</t>
-  </si>
-  <si>
     <t xml:space="preserve">キーボード</t>
   </si>
   <si>
-    <t xml:space="preserve">Keyboard controls</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2591,27 +2024,15 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Known Applications</t>
-  </si>
-  <si>
     <t xml:space="preserve">知っている アプリケーション</t>
   </si>
   <si>
-    <t xml:space="preserve">Language selection is not possible for 'Speech Proxy'.</t>
-  </si>
-  <si>
     <t xml:space="preserve">「音声プロキシ」では言語を選択できません。</t>
   </si>
   <si>
-    <t xml:space="preserve">Larger</t>
-  </si>
-  <si>
     <t xml:space="preserve">大きくする</t>
   </si>
   <si>
-    <t xml:space="preserve">Later, you can click 'Edit Shortcuts' to create shortcuts for displaying specific applications.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2661,27 +2082,15 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Left</t>
-  </si>
-  <si>
     <t xml:space="preserve">左</t>
   </si>
   <si>
-    <t xml:space="preserve">Left click</t>
-  </si>
-  <si>
     <t xml:space="preserve">左クリック</t>
   </si>
   <si>
-    <t xml:space="preserve">Legacy Edit Mode</t>
-  </si>
-  <si>
     <t xml:space="preserve">レガシー編集モード</t>
   </si>
   <si>
-    <t xml:space="preserve">Loading...</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2703,172 +2112,88 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Look at your left wrist</t>
-  </si>
-  <si>
     <t xml:space="preserve">左手首を見てください</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Looks like there's no events at the moment! Maybe create one?</t>
   </si>
   <si>
     <t xml:space="preserve">現在イベントはないようです！
 たぶん作成しますか？</t>
   </si>
   <si>
-    <t xml:space="preserve">Low Battery</t>
-  </si>
-  <si>
     <t xml:space="preserve">ローバッテリー</t>
   </si>
   <si>
-    <t xml:space="preserve">Macros</t>
-  </si>
-  <si>
     <t xml:space="preserve">マクロ</t>
   </si>
   <si>
-    <t xml:space="preserve">Main</t>
-  </si>
-  <si>
     <t xml:space="preserve">メイン</t>
   </si>
   <si>
-    <t xml:space="preserve">Maintain width</t>
-  </si>
-  <si>
     <t xml:space="preserve">幅を維持する</t>
   </si>
   <si>
-    <t xml:space="preserve">Master</t>
-  </si>
-  <si>
     <t xml:space="preserve">マスター</t>
   </si>
   <si>
-    <t xml:space="preserve">Media Applications</t>
-  </si>
-  <si>
     <t xml:space="preserve">メディア アプリケーション</t>
   </si>
   <si>
-    <t xml:space="preserve">Media controls</t>
-  </si>
-  <si>
     <t xml:space="preserve">メディアコントロール</t>
   </si>
   <si>
-    <t xml:space="preserve">Media profanity filter</t>
-  </si>
-  <si>
     <t xml:space="preserve">メディアの冒涜フィルタ</t>
   </si>
   <si>
-    <t xml:space="preserve">Menu Back</t>
-  </si>
-  <si>
     <t xml:space="preserve">メニュー戻る</t>
   </si>
   <si>
-    <t xml:space="preserve">Menu Controls</t>
-  </si>
-  <si>
     <t xml:space="preserve">メニューコントロール</t>
   </si>
   <si>
-    <t xml:space="preserve">Menu Down</t>
-  </si>
-  <si>
     <t xml:space="preserve">メニューダウン</t>
   </si>
   <si>
-    <t xml:space="preserve">Menu Left</t>
-  </si>
-  <si>
     <t xml:space="preserve">メニュー左</t>
   </si>
   <si>
-    <t xml:space="preserve">Menu Right</t>
-  </si>
-  <si>
     <t xml:space="preserve">メニュー右</t>
   </si>
   <si>
-    <t xml:space="preserve">Menu Select</t>
-  </si>
-  <si>
     <t xml:space="preserve">メニュー選択</t>
   </si>
   <si>
-    <t xml:space="preserve">Menu Up</t>
-  </si>
-  <si>
     <t xml:space="preserve">メニューアップ</t>
   </si>
   <si>
-    <t xml:space="preserve">Menu Visible</t>
-  </si>
-  <si>
     <t xml:space="preserve">メニューが表示されます</t>
   </si>
   <si>
-    <t xml:space="preserve">Minimize menu on open</t>
-  </si>
-  <si>
     <t xml:space="preserve">キーボードがあるときに メニューを非表示</t>
   </si>
   <si>
-    <t xml:space="preserve">Minimize on startup:</t>
-  </si>
-  <si>
     <t xml:space="preserve">起動時に最小化：</t>
   </si>
   <si>
-    <t xml:space="preserve">Misc</t>
-  </si>
-  <si>
     <t xml:space="preserve">その他</t>
   </si>
   <si>
-    <t xml:space="preserve">More will add to this menu as you use different media applications.</t>
-  </si>
-  <si>
     <t xml:space="preserve">さまざまなメディア アプリケーションを使用すると、このメニューにさらに追加されます。</t>
   </si>
   <si>
-    <t xml:space="preserve">Mouse smoothing</t>
-  </si>
-  <si>
     <t xml:space="preserve">マウスのスムージング</t>
   </si>
   <si>
-    <t xml:space="preserve">Move all windows</t>
-  </si>
-  <si>
     <t xml:space="preserve">すべてのウィンドウを移動する</t>
   </si>
   <si>
-    <t xml:space="preserve">Move delay</t>
-  </si>
-  <si>
     <t xml:space="preserve">移動遅延</t>
   </si>
   <si>
-    <t xml:space="preserve">Move window</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウィンドウを移動</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
     <t xml:space="preserve">名前</t>
   </si>
   <si>
-    <t xml:space="preserve">Name too long, please limit to 60 characters.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2897,9 +2222,6 @@
       </rPr>
       <t xml:space="preserve">文字に制限してください。</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigate the menu by using the arrow keys, Enter, and Backspace.</t>
   </si>
   <si>
     <r>
@@ -2952,34 +2274,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Navigation</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ナビゲート </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need help? Position the window so that the center of it is close to the attach point. The circle around the attach point will shrink as you move the window closer.</t>
   </si>
   <si>
     <t xml:space="preserve">お困りですか？
 ウィンドウの中心がアタッチポイントに近づくように配置します。ウィンドウを近づけると、アタッチポイントを囲む円は小さくなります。</t>
   </si>
   <si>
-    <t xml:space="preserve">Next</t>
-  </si>
-  <si>
     <t xml:space="preserve">次</t>
   </si>
   <si>
-    <t xml:space="preserve">Night light</t>
-  </si>
-  <si>
     <t xml:space="preserve">夜モード</t>
   </si>
   <si>
-    <t xml:space="preserve">Night light will enable with the Windows night light</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3010,39 +2317,21 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
     <t xml:space="preserve">番号</t>
   </si>
   <si>
-    <t xml:space="preserve">No events found, maybe create one?</t>
-  </si>
-  <si>
     <t xml:space="preserve">イベントが見つかりません。作成しますか？</t>
   </si>
   <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
     <t xml:space="preserve">無し</t>
   </si>
   <si>
-    <t xml:space="preserve">Not Interested</t>
-  </si>
-  <si>
     <t xml:space="preserve">興味がない</t>
   </si>
   <si>
-    <t xml:space="preserve">Not starting?</t>
-  </si>
-  <si>
     <t xml:space="preserve">開始しませんか？</t>
   </si>
   <si>
-    <t xml:space="preserve">Not using VR controllers? When in VR, press F8!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3102,33 +2391,18 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Note3</t>
-  </si>
-  <si>
     <t xml:space="preserve">ノート</t>
   </si>
   <si>
-    <t xml:space="preserve">Notifications Enabled</t>
-  </si>
-  <si>
     <t xml:space="preserve">通知を有効にする</t>
   </si>
   <si>
-    <t xml:space="preserve">Notifications opacity</t>
-  </si>
-  <si>
     <t xml:space="preserve">通知の不透明度</t>
   </si>
   <si>
-    <t xml:space="preserve">Notifications size</t>
-  </si>
-  <si>
     <t xml:space="preserve">通知サイズ</t>
   </si>
   <si>
-    <t xml:space="preserve">OVR Toolkit is starting, please wait!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3150,9 +2424,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">OVR Toolkit isn't running as admin! The program may not function correctly.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3174,15 +2445,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Okay</t>
-  </si>
-  <si>
     <t xml:space="preserve">はい</t>
   </si>
   <si>
-    <t xml:space="preserve">Once selected, release the 'Ctrl' key to start moving the window.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3213,51 +2478,27 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Only block input in Edit Mode</t>
-  </si>
-  <si>
     <t xml:space="preserve">編集モードだけで 入力をブロック</t>
   </si>
   <si>
-    <t xml:space="preserve">Opacity</t>
-  </si>
-  <si>
     <t xml:space="preserve">不透明度</t>
   </si>
   <si>
-    <t xml:space="preserve">Open link</t>
-  </si>
-  <si>
     <t xml:space="preserve">リンクを開く</t>
   </si>
   <si>
-    <t xml:space="preserve">Open log folder</t>
-  </si>
-  <si>
     <t xml:space="preserve">ログフォルダを開く</t>
   </si>
   <si>
-    <t xml:space="preserve">Opened link in your browser.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ブラウザで開いたリンク。</t>
   </si>
   <si>
-    <t xml:space="preserve">Orientation</t>
-  </si>
-  <si>
     <t xml:space="preserve">オリエンテーション</t>
   </si>
   <si>
-    <t xml:space="preserve">Overlay Quality</t>
-  </si>
-  <si>
     <t xml:space="preserve">オーバーレイ品質</t>
   </si>
   <si>
-    <t xml:space="preserve">Overlay quality is determined automatically by SteamVR with no user or developer option to change it.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3288,9 +2529,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Overlay quality reduced - Click for more details</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3321,27 +2559,15 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Performance stats</t>
-  </si>
-  <si>
     <t xml:space="preserve">パフォーマンス統計</t>
   </si>
   <si>
-    <t xml:space="preserve">Persist between profiles</t>
-  </si>
-  <si>
     <t xml:space="preserve">プロファイル間で持続</t>
   </si>
   <si>
-    <t xml:space="preserve">Pick colour</t>
-  </si>
-  <si>
     <t xml:space="preserve">色を選ぶ</t>
   </si>
   <si>
-    <t xml:space="preserve">Picking...</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3363,12 +2589,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Pin window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Play Pause</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3399,21 +2619,12 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Play music in loading screen</t>
-  </si>
-  <si>
     <t xml:space="preserve">ロード画面で音楽を再生</t>
   </si>
   <si>
-    <t xml:space="preserve">Player Limit</t>
-  </si>
-  <si>
     <t xml:space="preserve">プレイヤー制限</t>
   </si>
   <si>
-    <t xml:space="preserve">Player limit too high! 150 max.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3435,15 +2646,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Player limit too low!</t>
-  </si>
-  <si>
     <t xml:space="preserve">プレイヤー制限が低すぎます！</t>
   </si>
   <si>
-    <t xml:space="preserve">Please attach the 'Player' and 'Player-Last' log files from the following folder to help fix your issue:</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3493,9 +2698,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Please do not hesitate to join us on Discord to provide feedback or suggestions to improve the experience!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3526,9 +2728,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Please join us on Discord for the fastest response, or, post on the Steam Discussions!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3578,9 +2777,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Please join us on Discord, or, check out the video tutorial to learn more about using OVR Toolkit.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3621,9 +2817,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Please put your headset on to start using OVR Toolkit!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3654,9 +2847,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Please restart SteamVR!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3688,15 +2878,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Presets</t>
-  </si>
-  <si>
     <t xml:space="preserve">プリセット</t>
   </si>
   <si>
-    <t xml:space="preserve">Press 'Enter' to close the tutorial.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3718,9 +2902,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Press Backspace to finish</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3742,9 +2923,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Press Backspace to stop moving.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3775,9 +2953,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Press Delete to delete a window, Insert to bring the window into view.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3846,9 +3021,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Press F to favourite</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3870,9 +3042,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Press F8 key</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3894,42 +3063,21 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Previous</t>
-  </si>
-  <si>
     <t xml:space="preserve">前</t>
   </si>
   <si>
-    <t xml:space="preserve">Profile switcher</t>
-  </si>
-  <si>
     <t xml:space="preserve">プロファイルスイッチャー</t>
   </si>
   <si>
-    <t xml:space="preserve">Profiles</t>
-  </si>
-  <si>
     <t xml:space="preserve">プロファイル</t>
   </si>
   <si>
-    <t xml:space="preserve">Quit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-center</t>
-  </si>
-  <si>
     <t xml:space="preserve">再センタリング</t>
   </si>
   <si>
-    <t xml:space="preserve">Re-center window</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウィンドウを中央に戻す</t>
   </si>
   <si>
-    <t xml:space="preserve">Re-center window will position windows relative to your headset each time you toggle your overlays, useful when using 'playspace mover' applications.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3951,39 +3099,21 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Ready to use</t>
-  </si>
-  <si>
     <t xml:space="preserve">使用する準備ができて</t>
   </si>
   <si>
-    <t xml:space="preserve">Rebind</t>
-  </si>
-  <si>
     <t xml:space="preserve">再バインド</t>
   </si>
   <si>
-    <t xml:space="preserve">Recenter snap angle</t>
-  </si>
-  <si>
     <t xml:space="preserve">スナップ角度を再中心化</t>
   </si>
   <si>
-    <t xml:space="preserve">Recenter windows</t>
-  </si>
-  <si>
     <t xml:space="preserve">最近のウィンドウ</t>
   </si>
   <si>
-    <t xml:space="preserve">Refresh list</t>
-  </si>
-  <si>
     <t xml:space="preserve">リストを更新</t>
   </si>
   <si>
-    <t xml:space="preserve">Remember UI minimized state</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4005,27 +3135,15 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Report bug</t>
-  </si>
-  <si>
     <t xml:space="preserve">バグを報告する</t>
   </si>
   <si>
-    <t xml:space="preserve">Requires manual setup</t>
-  </si>
-  <si>
     <t xml:space="preserve">手動セットアップが必要</t>
   </si>
   <si>
-    <t xml:space="preserve">Reset</t>
-  </si>
-  <si>
     <t xml:space="preserve">リセット</t>
   </si>
   <si>
-    <t xml:space="preserve">Reset UI location</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4047,9 +3165,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Reset UI position</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4071,198 +3186,99 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Reset keyboard position</t>
-  </si>
-  <si>
     <t xml:space="preserve">キーボードの位置をリセットする</t>
   </si>
   <si>
-    <t xml:space="preserve">Reset settings</t>
-  </si>
-  <si>
     <t xml:space="preserve">設定をリセット</t>
   </si>
   <si>
-    <t xml:space="preserve">Reset to default keyboard</t>
-  </si>
-  <si>
     <t xml:space="preserve">デフォルトのキーボードにリセット</t>
   </si>
   <si>
-    <t xml:space="preserve">Reset tutorial</t>
-  </si>
-  <si>
     <t xml:space="preserve">チュートリアルをリセット</t>
   </si>
   <si>
-    <t xml:space="preserve">Resize</t>
-  </si>
-  <si>
     <t xml:space="preserve">サイズ変更</t>
   </si>
   <si>
-    <t xml:space="preserve">Resize menu</t>
-  </si>
-  <si>
     <t xml:space="preserve">メニューのサイズ変更</t>
   </si>
   <si>
-    <t xml:space="preserve">Resize window</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウィンドウの サイズを 変更</t>
   </si>
   <si>
-    <t xml:space="preserve">Resize wrist overlay</t>
-  </si>
-  <si>
     <t xml:space="preserve">手首オーバーレイのサイズを変更する</t>
   </si>
   <si>
-    <t xml:space="preserve">Restart Application</t>
-  </si>
-  <si>
     <t xml:space="preserve">アプリケーションを再起動します</t>
   </si>
   <si>
-    <t xml:space="preserve">Right</t>
-  </si>
-  <si>
     <t xml:space="preserve">右</t>
   </si>
   <si>
-    <t xml:space="preserve">Right click</t>
-  </si>
-  <si>
     <t xml:space="preserve">右クリック</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotate left</t>
-  </si>
-  <si>
     <t xml:space="preserve">左に回転</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotate right</t>
-  </si>
-  <si>
     <t xml:space="preserve">右に回る</t>
   </si>
   <si>
-    <t xml:space="preserve">Running</t>
-  </si>
-  <si>
     <t xml:space="preserve">ランニング</t>
   </si>
   <si>
-    <t xml:space="preserve">Saturation Range</t>
-  </si>
-  <si>
     <t xml:space="preserve">飽和範囲</t>
   </si>
   <si>
-    <t xml:space="preserve">Save</t>
-  </si>
-  <si>
     <t xml:space="preserve">保存</t>
   </si>
   <si>
-    <t xml:space="preserve">Save changes</t>
-  </si>
-  <si>
     <t xml:space="preserve">変更内容を保存</t>
   </si>
   <si>
-    <t xml:space="preserve">Saved</t>
-  </si>
-  <si>
     <t xml:space="preserve">保存しました</t>
   </si>
   <si>
-    <t xml:space="preserve">Scroll down</t>
-  </si>
-  <si>
     <t xml:space="preserve">下へスクロール</t>
   </si>
   <si>
-    <t xml:space="preserve">Scroll up</t>
-  </si>
-  <si>
     <t xml:space="preserve">スクロールアップする</t>
   </si>
   <si>
-    <t xml:space="preserve">Search</t>
-  </si>
-  <si>
     <t xml:space="preserve">検索</t>
   </si>
   <si>
-    <t xml:space="preserve">Select</t>
-  </si>
-  <si>
     <t xml:space="preserve">選択する</t>
   </si>
   <si>
-    <t xml:space="preserve">Select Icon</t>
-  </si>
-  <si>
     <t xml:space="preserve">アイコンを選択</t>
   </si>
   <si>
-    <t xml:space="preserve">Select Media Applications</t>
-  </si>
-  <si>
     <t xml:space="preserve">メディア アプリケーションの選択</t>
   </si>
   <si>
-    <t xml:space="preserve">Select Window</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウィンドウを選択</t>
   </si>
   <si>
-    <t xml:space="preserve">Select a window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select a window by clicking on it to use Window Settings!</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウィンドウ設定を 使うには  ウィンドウをクリックで 選択。</t>
   </si>
   <si>
-    <t xml:space="preserve">Select content</t>
-  </si>
-  <si>
     <t xml:space="preserve">コンテンツを選択</t>
   </si>
   <si>
-    <t xml:space="preserve">Select keyboard</t>
-  </si>
-  <si>
     <t xml:space="preserve">キーボードを選択</t>
   </si>
   <si>
-    <t xml:space="preserve">Select microphone</t>
-  </si>
-  <si>
     <t xml:space="preserve">マイクを選択</t>
   </si>
   <si>
-    <t xml:space="preserve">Select wrist watch size</t>
-  </si>
-  <si>
     <t xml:space="preserve">腕時計のサイズを選択</t>
   </si>
   <si>
-    <t xml:space="preserve">Select your preffered wrist watch size</t>
-  </si>
-  <si>
     <t xml:space="preserve">好みの腕時計のサイズを選択してください</t>
   </si>
   <si>
-    <t xml:space="preserve">Selected file is not a PNG file!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4293,36 +3309,18 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Set as default</t>
-  </si>
-  <si>
     <t xml:space="preserve">デフォルトとして設定</t>
   </si>
   <si>
-    <t xml:space="preserve">Set contents</t>
-  </si>
-  <si>
     <t xml:space="preserve">内容を設定</t>
   </si>
   <si>
-    <t xml:space="preserve">Settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setup hotkeys for faster window switching!</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウインドウの切替をもっとはやくできるためにホットキーを設定しよう！</t>
   </si>
   <si>
-    <t xml:space="preserve">Setup wrist macros</t>
-  </si>
-  <si>
     <t xml:space="preserve">手首マクロを設定する</t>
   </si>
   <si>
-    <t xml:space="preserve">Show and hide your windows by double pressing both 'A' buttons.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4372,9 +3370,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Show and hide your windows by double pressing both 'Grip' buttons.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4405,27 +3400,15 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Show events on game start</t>
-  </si>
-  <si>
     <t xml:space="preserve">ゲーム開始時にイベントを表示する</t>
   </si>
   <si>
-    <t xml:space="preserve">Show in front</t>
-  </si>
-  <si>
     <t xml:space="preserve">常にトップに</t>
   </si>
   <si>
-    <t xml:space="preserve">Show playing media in Chatbox</t>
-  </si>
-  <si>
     <t xml:space="preserve">チャットボックスで再生中のメディアを表示する</t>
   </si>
   <si>
-    <t xml:space="preserve">Side-by-Side 3D Crossed</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4456,9 +3439,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Side-by-Side 3D Parralel</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4489,63 +3469,33 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Simple</t>
-  </si>
-  <si>
     <t xml:space="preserve">単純</t>
   </si>
   <si>
-    <t xml:space="preserve">Skip tutorial</t>
-  </si>
-  <si>
     <t xml:space="preserve">チュートリアルをスキップ</t>
   </si>
   <si>
-    <t xml:space="preserve">Smaller</t>
-  </si>
-  <si>
     <t xml:space="preserve">小さくする</t>
   </si>
   <si>
-    <t xml:space="preserve">Social</t>
-  </si>
-  <si>
     <t xml:space="preserve">社交</t>
   </si>
   <si>
-    <t xml:space="preserve">Sounds, word suggestions, rotation lock, microphone</t>
-  </si>
-  <si>
     <t xml:space="preserve">音、単語の提案、回転ロック、マイク</t>
   </si>
   <si>
-    <t xml:space="preserve">Spawn Mask</t>
-  </si>
-  <si>
     <t xml:space="preserve">マスクを作成</t>
   </si>
   <si>
-    <t xml:space="preserve">Spawn Window</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウィンドウを 作成</t>
   </si>
   <si>
-    <t xml:space="preserve">Spawn another window from the 'Window List' menu.</t>
-  </si>
-  <si>
     <t xml:space="preserve">「ウィンドウリスト」メニューから別のウィンドウを生成します。</t>
   </si>
   <si>
-    <t xml:space="preserve">Spawn new window</t>
-  </si>
-  <si>
     <t xml:space="preserve">新しいウィンドウを作成</t>
   </si>
   <si>
-    <t xml:space="preserve">Speech API</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4567,45 +3517,24 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Speech language</t>
-  </si>
-  <si>
     <t xml:space="preserve">音声言語</t>
   </si>
   <si>
-    <t xml:space="preserve">Start</t>
-  </si>
-  <si>
     <t xml:space="preserve">開始</t>
   </si>
   <si>
-    <t xml:space="preserve">Start a game to see Events!</t>
-  </si>
-  <si>
     <t xml:space="preserve">ゲームを開始してイベントを見てください！</t>
   </si>
   <si>
-    <t xml:space="preserve">Start application</t>
-  </si>
-  <si>
     <t xml:space="preserve">アプリケーションを開始</t>
   </si>
   <si>
-    <t xml:space="preserve">Start tutorial</t>
-  </si>
-  <si>
     <t xml:space="preserve">チュートリアルを開始</t>
   </si>
   <si>
-    <t xml:space="preserve">Started:</t>
-  </si>
-  <si>
     <t xml:space="preserve">開始した：</t>
   </si>
   <si>
-    <t xml:space="preserve">Startup complete! You can now use OVR Toolkit!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4636,21 +3565,12 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Startup errors</t>
-  </si>
-  <si>
     <t xml:space="preserve">起動エラー</t>
   </si>
   <si>
-    <t xml:space="preserve">Startup messages</t>
-  </si>
-  <si>
     <t xml:space="preserve">起動メッセージ</t>
   </si>
   <si>
-    <t xml:space="preserve">Steam Workshop</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4672,57 +3592,30 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Subscribe</t>
-  </si>
-  <si>
     <t xml:space="preserve">サブスクライブ</t>
   </si>
   <si>
-    <t xml:space="preserve">Subscribed Items</t>
-  </si>
-  <si>
     <t xml:space="preserve">サブスクリプション中のアイテム</t>
   </si>
   <si>
-    <t xml:space="preserve">Switch Profile</t>
-  </si>
-  <si>
     <t xml:space="preserve">プロファイルの切り替え</t>
   </si>
   <si>
-    <t xml:space="preserve">Switch Window</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウインドウ 変更</t>
   </si>
   <si>
-    <t xml:space="preserve">Switch menu hand</t>
-  </si>
-  <si>
     <t xml:space="preserve">メニュー手を変更</t>
   </si>
   <si>
-    <t xml:space="preserve">Switch overlay hand</t>
-  </si>
-  <si>
     <t xml:space="preserve">オーバーレ手を変更</t>
   </si>
   <si>
-    <t xml:space="preserve">Tab into game</t>
-  </si>
-  <si>
     <t xml:space="preserve">ゲームにタブで移動</t>
   </si>
   <si>
-    <t xml:space="preserve">Tab out on window toggle:</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウィンドウトグルでタブアウト：</t>
   </si>
   <si>
-    <t xml:space="preserve">Thank you for choosing OVR Toolkit!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4744,15 +3637,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">The currently selected window is shown by a yellow border around it.</t>
-  </si>
-  <si>
     <t xml:space="preserve">現在選択されているウィンドウは、その周りに黄色の境界線で表示されます。</t>
   </si>
   <si>
-    <t xml:space="preserve">The tutorial is now complete, we hope you enjoy your time using OVR Toolkit!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4783,15 +3670,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">There are upcoming events for this game!</t>
-  </si>
-  <si>
     <t xml:space="preserve">このゲームの今後のイベントがあります！</t>
   </si>
   <si>
-    <t xml:space="preserve">These will appear on your wristwatch in VR</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4822,12 +3703,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">This fix will link your SteamVR Resolution to your overlay supersampling. (Up to 150 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This will set the default settings used on all newly spawned windows, are you sure?</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4849,9 +3724,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">This workaround will trick SteamVR into thinking your PC is faster than it is so the overlay resolution will be increased.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4901,9 +3773,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Those are the basics of using OVR Toolkit! Find more info on our wiki or on our Discord!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4972,73 +3841,37 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Tilt</t>
-  </si>
-  <si>
     <t xml:space="preserve">傾き</t>
   </si>
   <si>
-    <t xml:space="preserve">Tilt Back</t>
-  </si>
-  <si>
     <t xml:space="preserve">後ろに傾ける</t>
   </si>
   <si>
-    <t xml:space="preserve">Tilt Down</t>
-  </si>
-  <si>
     <t xml:space="preserve">下に傾く</t>
   </si>
   <si>
-    <t xml:space="preserve">Tilt Forward</t>
-  </si>
-  <si>
     <t xml:space="preserve">前傾</t>
   </si>
   <si>
-    <t xml:space="preserve">Tilt Left</t>
-  </si>
-  <si>
     <t xml:space="preserve">左に傾く</t>
   </si>
   <si>
-    <t xml:space="preserve">Tilt Right</t>
-  </si>
-  <si>
     <t xml:space="preserve">右に傾く</t>
   </si>
   <si>
-    <t xml:space="preserve">Tilt Up</t>
-  </si>
-  <si>
     <t xml:space="preserve">上に傾く</t>
   </si>
   <si>
-    <t xml:space="preserve">Time visible</t>
-  </si>
-  <si>
     <t xml:space="preserve">目に見える時間</t>
   </si>
   <si>
-    <t xml:space="preserve">Timer</t>
-  </si>
-  <si>
     <t xml:space="preserve">タイマー</t>
   </si>
   <si>
-    <t xml:space="preserve">Timer cancelled</t>
-  </si>
-  <si>
     <t xml:space="preserve">タイマーがキャンセルされました</t>
   </si>
   <si>
-    <t xml:space="preserve">Timer set</t>
-  </si>
-  <si>
     <t xml:space="preserve">タイマーセット</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To configure, recenter your view in game then open Edit Mode</t>
   </si>
   <si>
     <r>
@@ -5111,15 +3944,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">To move windows, hold the grip button near them whilst in 'Edit Mode'.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウィンドウを移動するには、 「編集モード」でウィンドウの近くで グリップボタンを押し続く。</t>
   </si>
   <si>
-    <t xml:space="preserve">To resize a window, hold both 'A' buttons and move your hands apart or together.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5150,9 +3977,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">To resize a window, hold both 'Grip' buttons and move your hands apart or together.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5202,9 +4026,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">To select which window you are editing open 'Window List', navigate to the window you would like to edit, then press 'Enter'.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5273,9 +4094,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">To toggle 'Edit Mode' double press both grip buttons at the same time.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5306,114 +4124,57 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Toggle</t>
-  </si>
-  <si>
     <t xml:space="preserve">トグル</t>
   </si>
   <si>
-    <t xml:space="preserve">Toggle 'Simulator Mode' menu:</t>
-  </si>
-  <si>
     <t xml:space="preserve">「シミュレータモード」メニューを切り替えます。</t>
   </si>
   <si>
-    <t xml:space="preserve">Toggle Windows</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウィンドウの切り替え</t>
   </si>
   <si>
-    <t xml:space="preserve">Top</t>
-  </si>
-  <si>
     <t xml:space="preserve">上</t>
   </si>
   <si>
-    <t xml:space="preserve">Touchscreen input, touchpad scrolling, grip resizing</t>
-  </si>
-  <si>
     <t xml:space="preserve">タッチスクリーン入力、タッチパッドのスクロール、グリップのサイズ変更</t>
   </si>
   <si>
-    <t xml:space="preserve">TouchscreenOff</t>
-  </si>
-  <si>
     <t xml:space="preserve">タッチスクリーンエミュレーションが無効</t>
   </si>
   <si>
-    <t xml:space="preserve">TouchscreenOn</t>
-  </si>
-  <si>
     <t xml:space="preserve">タッチスクリーンエミュレーションが有効</t>
   </si>
   <si>
-    <t xml:space="preserve">Tracked device</t>
-  </si>
-  <si>
     <t xml:space="preserve">デバイス</t>
   </si>
   <si>
-    <t xml:space="preserve">Trigger down</t>
-  </si>
-  <si>
     <t xml:space="preserve">トリガーダウン</t>
   </si>
   <si>
-    <t xml:space="preserve">Trigger up</t>
-  </si>
-  <si>
     <t xml:space="preserve">トリガーアップ</t>
   </si>
   <si>
-    <t xml:space="preserve">Tutorial</t>
-  </si>
-  <si>
     <t xml:space="preserve">チュートリアル</t>
   </si>
   <si>
-    <t xml:space="preserve">Tutorial finished</t>
-  </si>
-  <si>
     <t xml:space="preserve">チュートリアルが終了しました</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsubscribe</t>
-  </si>
-  <si>
     <t xml:space="preserve">サブスクリプションの解除</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsupported</t>
-  </si>
-  <si>
     <t xml:space="preserve">サポートされていない</t>
   </si>
   <si>
-    <t xml:space="preserve">Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upcoming Event</t>
-  </si>
-  <si>
     <t xml:space="preserve">これから起きる出来事</t>
   </si>
   <si>
-    <t xml:space="preserve">Upcoming Events</t>
-  </si>
-  <si>
     <t xml:space="preserve">今後のイベント</t>
   </si>
   <si>
-    <t xml:space="preserve">Update Event</t>
-  </si>
-  <si>
     <t xml:space="preserve">更新イベント</t>
   </si>
   <si>
-    <t xml:space="preserve">Use 24 hour time</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5435,9 +4196,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Use arrow keys to navigate the menu. Enter to select, Backspace to go back.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5487,15 +4245,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Use both touchpads</t>
-  </si>
-  <si>
     <t xml:space="preserve">両方のタッチパッドを使用する</t>
   </si>
   <si>
-    <t xml:space="preserve">Use compact UI</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5526,57 +4278,30 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Use grip window resizing</t>
-  </si>
-  <si>
     <t xml:space="preserve">グリップをウィンドウのサイズ変更に使用する</t>
   </si>
   <si>
-    <t xml:space="preserve">Use media keys</t>
-  </si>
-  <si>
     <t xml:space="preserve">メディアキーを使用する</t>
   </si>
   <si>
-    <t xml:space="preserve">Use right arrow key to access favourite windows.</t>
-  </si>
-  <si>
     <t xml:space="preserve">右矢印キーでお気に入りのウィンドウにアクセスできます。</t>
   </si>
   <si>
-    <t xml:space="preserve">Use the on-screen movement controls to manipulate the window's position.</t>
-  </si>
-  <si>
     <t xml:space="preserve">画面上の移動コントロールを使用して、ウィンドウの位置を操作します。</t>
   </si>
   <si>
-    <t xml:space="preserve">Use touchpad resizing</t>
-  </si>
-  <si>
     <t xml:space="preserve">タッチパッドをサイズ変更に使用</t>
   </si>
   <si>
-    <t xml:space="preserve">Use touchpad scrolling</t>
-  </si>
-  <si>
     <t xml:space="preserve">タッチパッドをスクロールに使用</t>
   </si>
   <si>
-    <t xml:space="preserve">Use touchpad window moving</t>
-  </si>
-  <si>
     <t xml:space="preserve">タッチパッドをウィンドウの移動に使用</t>
   </si>
   <si>
-    <t xml:space="preserve">Use touchscreen input</t>
-  </si>
-  <si>
     <t xml:space="preserve">タッチパッドをタッチスクリーン入力に使用</t>
   </si>
   <si>
-    <t xml:space="preserve">VIVE Wireless stats</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5598,9 +4323,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">VR Controllers</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5622,33 +4344,18 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Vertical</t>
-  </si>
-  <si>
     <t xml:space="preserve">垂直</t>
   </si>
   <si>
-    <t xml:space="preserve">Video guides:</t>
-  </si>
-  <si>
     <t xml:space="preserve">ビデオガイド：</t>
   </si>
   <si>
-    <t xml:space="preserve">Visibility</t>
-  </si>
-  <si>
     <t xml:space="preserve">可視</t>
   </si>
   <si>
-    <t xml:space="preserve">Voice Input</t>
-  </si>
-  <si>
     <t xml:space="preserve">音声入力</t>
   </si>
   <si>
-    <t xml:space="preserve">Voice recognition can be stopped and started by the voice input bar on top of the keyboard. For VRChat Chatbox output, ensure you click the 'VRC' button!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5698,15 +4405,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Volume</t>
-  </si>
-  <si>
     <t xml:space="preserve">ボリューム</t>
   </si>
   <si>
-    <t xml:space="preserve">Welcome to OVR Toolkit!</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5728,78 +4429,42 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Whilst holding a window, push up or down on the Joystick to push the window forwards or backwards.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウィンドウを押したまま、ジョイスティックを上下に押して、ウィンドウを前後に押します。</t>
   </si>
   <si>
-    <t xml:space="preserve">Whilst holding a window, push up or down on the Trackpad to push the window forwards or backwards.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウィンドウを押したまま、トラックパッドを上下に押して、ウィンドウを前後に押します。</t>
   </si>
   <si>
     <t xml:space="preserve">Wiki</t>
   </si>
   <si>
-    <t xml:space="preserve">Window Cropping</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウィンドウクロッピング</t>
   </si>
   <si>
-    <t xml:space="preserve">Window List</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウィンドウリスト</t>
   </si>
   <si>
-    <t xml:space="preserve">Window Settings</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウィンドウ設定</t>
   </si>
   <si>
-    <t xml:space="preserve">Window docking</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウィンドウドッキング</t>
   </si>
   <si>
-    <t xml:space="preserve">Window movement</t>
-  </si>
-  <si>
     <t xml:space="preserve">窓の動き</t>
   </si>
   <si>
-    <t xml:space="preserve">Window moving when not in Edit Mode</t>
-  </si>
-  <si>
     <t xml:space="preserve">編集モードでないときにウィンドウが移動する</t>
   </si>
   <si>
-    <t xml:space="preserve">Window selection</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウィンドウの選択</t>
   </si>
   <si>
-    <t xml:space="preserve">Windows</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウインドウ</t>
   </si>
   <si>
-    <t xml:space="preserve">Windows face headset</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウインドウはヘッドセットに向かう</t>
   </si>
   <si>
-    <t xml:space="preserve">Windows notifications</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5821,36 +4486,18 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Workshop Subscriptions</t>
-  </si>
-  <si>
     <t xml:space="preserve">ワークショップのサブスクリプション</t>
   </si>
   <si>
-    <t xml:space="preserve">Would you like to take a short tutorial on how it works?</t>
-  </si>
-  <si>
     <t xml:space="preserve">それがどのように機能するかについての短いチュートリアルを受講しますか？</t>
   </si>
   <si>
-    <t xml:space="preserve">Wristwatch</t>
-  </si>
-  <si>
     <t xml:space="preserve">時計</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can keep windows visible by clicking the 'Pin' icon below them when in 'Edit Mode'.</t>
-  </si>
-  <si>
     <t xml:space="preserve">「編集モード」でウィンドウの下にある「ピン」アイコンをクリックすると、ウィンドウを表示したままにすることができます。</t>
   </si>
   <si>
-    <t xml:space="preserve">Your SteamVR Resolution will be linked to your overlay resolution. (Up to 150 )</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5899,9 +4546,6 @@
       </rPr>
       <t xml:space="preserve">150%)</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Your event starts in 5 minutes, please ensure your Join Instructions are set!</t>
   </si>
   <si>
     <r>
@@ -5967,29 +4611,23 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -6032,7 +4670,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6041,19 +4679,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6066,66 +4700,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFC9DAF8"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -6134,3642 +4708,2282 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:A1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.51"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="7" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="97.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="98.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>57</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>123</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>135</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>141</v>
+      <c r="A71" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>155</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>165</v>
+      <c r="A83" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>169</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>171</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>191</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>195</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>199</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>203</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>207</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>210</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>212</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>216</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>218</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>230</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>238</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>240</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>242</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>244</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>246</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>252</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>256</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>258</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>264</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>266</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>268</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>270</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>272</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>274</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>276</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>280</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>282</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>284</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>286</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>288</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>290</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>288</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>293</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>295</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>297</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>299</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>301</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>303</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>305</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>309</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>311</v>
+      <c r="A157" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>313</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>315</v>
+      <c r="A159" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>317</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>319</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="98.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>323</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="97.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>325</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>327</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>335</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>337</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>339</v>
+        <v>168</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>341</v>
+        <v>169</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>343</v>
+        <v>170</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>347</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>349</v>
+        <v>173</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>351</v>
+        <v>174</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>355</v>
+        <v>176</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>357</v>
+        <v>177</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>359</v>
+        <v>178</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>363</v>
+        <v>180</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>367</v>
+        <v>182</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>369</v>
+        <v>183</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>371</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>375</v>
+        <v>186</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>377</v>
+        <v>187</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>379</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>383</v>
+        <v>190</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>385</v>
+        <v>191</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>387</v>
+        <v>192</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>391</v>
+        <v>194</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>393</v>
+        <v>195</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>395</v>
+      <c r="A199" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>397</v>
+        <v>197</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>399</v>
+        <v>198</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>401</v>
+        <v>199</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>403</v>
+        <v>200</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>405</v>
+        <v>201</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>407</v>
+        <v>202</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>409</v>
+        <v>203</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>411</v>
+        <v>204</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>413</v>
+        <v>205</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>415</v>
+        <v>206</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>417</v>
+        <v>207</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>419</v>
+        <v>208</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>421</v>
+        <v>209</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>423</v>
+        <v>210</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>425</v>
+        <v>211</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>427</v>
+        <v>212</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>429</v>
+        <v>213</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>431</v>
+        <v>214</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>433</v>
+        <v>215</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>435</v>
+        <v>216</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>437</v>
+        <v>217</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>439</v>
+        <v>218</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>441</v>
+        <v>219</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>443</v>
+        <v>220</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="39.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>449</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="40.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>451</v>
+        <v>224</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>453</v>
+      <c r="A228" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>455</v>
+        <v>226</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>459</v>
+        <v>228</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>461</v>
+        <v>229</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>463</v>
+        <v>230</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>465</v>
+        <v>231</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>467</v>
+        <v>232</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>471</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>473</v>
+        <v>235</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>475</v>
+        <v>236</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>477</v>
+        <v>237</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>483</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>487</v>
+        <v>242</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>489</v>
+        <v>243</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>491</v>
+        <v>244</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>493</v>
+        <v>245</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>495</v>
+        <v>246</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>497</v>
+        <v>247</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>499</v>
+        <v>248</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>505</v>
+        <v>251</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>507</v>
+        <v>252</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>509</v>
+        <v>253</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>513</v>
+        <v>255</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>516</v>
+        <v>256</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>518</v>
+        <v>257</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>522</v>
+        <v>259</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>536</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>550</v>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>552</v>
+        <v>274</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>554</v>
+        <v>275</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>556</v>
+        <v>276</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>246</v>
+        <v>122</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>559</v>
+        <v>277</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>563</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>565</v>
+        <v>280</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>567</v>
+        <v>281</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>569</v>
+        <v>282</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>571</v>
+        <v>283</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>575</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>577</v>
+        <v>286</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>579</v>
+        <v>287</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="B294" s="3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>585</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>587</v>
+        <v>291</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>589</v>
+        <v>292</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>591</v>
+        <v>293</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>593</v>
+        <v>294</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>595</v>
+        <v>295</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>597</v>
+        <v>296</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>599</v>
+        <v>297</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>601</v>
+        <v>298</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>603</v>
+        <v>299</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>605</v>
+        <v>300</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>607</v>
+        <v>301</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>609</v>
+        <v>302</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>611</v>
+        <v>303</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>613</v>
+        <v>304</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>615</v>
+        <v>305</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>617</v>
+        <v>306</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>619</v>
+        <v>307</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>621</v>
+        <v>308</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>623</v>
+        <v>309</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>625</v>
+        <v>310</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>627</v>
+        <v>311</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>629</v>
+        <v>312</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>631</v>
+        <v>313</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>633</v>
+        <v>314</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>635</v>
+        <v>315</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>635</v>
+        <v>315</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>638</v>
+        <v>316</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>640</v>
+        <v>317</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>642</v>
+        <v>318</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>644</v>
+        <v>319</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>646</v>
+        <v>320</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>650</v>
+        <v>322</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>652</v>
+        <v>323</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>654</v>
+        <v>324</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>295</v>
+        <v>146</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>657</v>
+        <v>325</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>663</v>
+        <v>328</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>665</v>
+        <v>329</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>667</v>
+        <v>330</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>673</v>
+        <v>333</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>675</v>
+        <v>334</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>677</v>
+        <v>335</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>679</v>
+        <v>336</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>681</v>
+        <v>337</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>683</v>
+        <v>338</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>685</v>
+        <v>339</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>687</v>
+        <v>340</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>689</v>
+        <v>341</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>693</v>
+        <v>343</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>695</v>
+        <v>344</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>697</v>
+        <v>345</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>699</v>
+        <v>346</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>701</v>
+        <v>347</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>703</v>
+        <v>348</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>707</v>
+        <v>350</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>709</v>
+        <v>351</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B360" s="3" t="s">
-        <v>713</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="2" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>715</v>
+        <v>354</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>717</v>
+        <v>355</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>719</v>
+        <v>356</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>721</v>
+        <v>357</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>723</v>
+        <v>358</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>725</v>
+        <v>359</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="B367" s="2" t="s">
-        <v>727</v>
+        <v>360</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B369" s="3" t="s">
-        <v>731</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="2" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="B371" s="2" t="s">
-        <v>735</v>
+        <v>364</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="B373" s="2" t="s">
-        <v>739</v>
+        <v>366</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="B374" s="3"/>
-    </row>
-    <row r="375" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="1"/>
+    </row>
+    <row r="375" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="B376" s="2" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B377" s="2" t="s">
-        <v>746</v>
+        <v>369</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>748</v>
+        <v>370</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>750</v>
+        <v>371</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="B380" s="2" t="s">
-        <v>752</v>
+        <v>372</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>754</v>
+        <v>373</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>756</v>
+        <v>374</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>758</v>
+        <v>375</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>760</v>
+        <v>376</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>762</v>
+        <v>377</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B386" s="2" t="s">
-        <v>764</v>
+        <v>378</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B387" s="2" t="s">
-        <v>766</v>
+        <v>379</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="B388" s="2" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="389" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="B389" s="5" t="s">
-        <v>770</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="4" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="391" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B391" s="2" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="392" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B392" s="2" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B393" s="2" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="394" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>780</v>
+        <v>386</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="B395" s="2" t="s">
-        <v>782</v>
+        <v>387</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="B396" s="2" t="s">
-        <v>784</v>
+        <v>388</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>786</v>
+        <v>389</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="B398" s="2" t="s">
-        <v>788</v>
+        <v>390</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="B399" s="2" t="s">
-        <v>790</v>
+        <v>391</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>792</v>
+        <v>392</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>794</v>
+        <v>393</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="B402" s="2" t="s">
-        <v>796</v>
+        <v>394</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>798</v>
+        <v>395</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="B404" s="2" t="s">
-        <v>800</v>
+        <v>396</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="B405" s="2" t="s">
-        <v>802</v>
+        <v>397</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="B406" s="2" t="s">
-        <v>804</v>
+        <v>398</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="B407" s="2" t="s">
-        <v>806</v>
+        <v>399</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="B408" s="2" t="s">
-        <v>808</v>
+        <v>400</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>788</v>
+        <v>390</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="B410" s="2" t="s">
-        <v>811</v>
+        <v>401</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="B411" s="2" t="s">
-        <v>813</v>
+        <v>402</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="B412" s="2" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="B413" s="3" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="414" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="B414" s="2" t="s">
-        <v>819</v>
+        <v>405</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="B415" s="2" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>823</v>
+        <v>407</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>825</v>
+        <v>408</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>827</v>
+        <v>409</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>829</v>
+        <v>410</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="B420" s="2" t="s">
-        <v>831</v>
+        <v>411</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="B421" s="2" t="s">
-        <v>833</v>
+        <v>412</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="B422" s="2" t="s">
-        <v>835</v>
+        <v>413</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="B423" s="2" t="s">
-        <v>837</v>
+        <v>414</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="B424" s="2" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="B425" s="3" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="426" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="B426" s="3" t="s">
-        <v>843</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="2" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="B427" s="2" t="s">
-        <v>845</v>
+        <v>418</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="B428" s="2" t="s">
-        <v>847</v>
+        <v>419</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="B429" s="2" t="s">
-        <v>849</v>
+        <v>420</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="B430" s="2" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B431" s="2" t="s">
-        <v>853</v>
+        <v>422</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="B432" s="2" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="433" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="B433" s="3" t="s">
-        <v>857</v>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="2" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B434" s="2" t="s">
-        <v>859</v>
+        <v>425</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="B435" s="2" t="s">
-        <v>861</v>
+        <v>426</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="B436" s="3" t="s">
-        <v>862</v>
+      <c r="A436" s="2" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="B437" s="2" t="s">
-        <v>864</v>
+        <v>428</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="B438" s="2" t="s">
-        <v>866</v>
+        <v>429</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="B439" s="2" t="s">
-        <v>868</v>
+        <v>430</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="B440" s="2" t="s">
-        <v>870</v>
+        <v>431</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>872</v>
+        <v>432</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="B442" s="2" t="s">
-        <v>874</v>
+        <v>433</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="B443" s="2" t="s">
-        <v>876</v>
+        <v>434</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="B444" s="2" t="s">
-        <v>878</v>
+        <v>435</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="B445" s="2" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="446" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="B446" s="3" t="s">
-        <v>882</v>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="B447" s="2" t="s">
-        <v>884</v>
+        <v>438</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="B448" s="2" t="s">
-        <v>886</v>
+        <v>439</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="B449" s="2" t="s">
-        <v>888</v>
+        <v>440</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="B450" s="2" t="s">
-        <v>485</v>
+        <v>241</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="B451" s="2" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="452" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B452" s="3" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="453" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="B453" s="2" t="s">
-        <v>895</v>
+        <v>443</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
